--- a/Bank7_Project/TestData.xlsx
+++ b/Bank7_Project/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>URL</t>
   </si>
@@ -27,22 +27,19 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>https://www.facebook.com/</t>
-  </si>
-  <si>
     <t>Srini</t>
   </si>
   <si>
     <t>Muvva</t>
   </si>
   <si>
-    <t>http://demo.guru99.com/V1/</t>
-  </si>
-  <si>
     <t>Lohitha</t>
   </si>
   <si>
     <t>Sharam</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,24 +414,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
